--- a/data/FINAL RESULT - UNPHOTOGRAPHED BY TAXONOMY.xlsx
+++ b/data/FINAL RESULT - UNPHOTOGRAPHED BY TAXONOMY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3E9029-FA9C-47A5-83B9-531C140B9602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFE6DA-A3AF-47CB-8787-5423A57B107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1D693BA0-6E93-4BC9-9600-95AA5D82E393}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="993">
   <si>
     <t>Cycadaceae</t>
   </si>
@@ -1650,9 +1650,6 @@
   </si>
   <si>
     <t>Guioa</t>
-  </si>
-  <si>
-    <t>Hakea</t>
   </si>
   <si>
     <t>Halophila</t>
@@ -5136,10 +5133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812373EF-0CAD-4168-9136-5DF84C475D87}">
-  <dimension ref="A1:C834"/>
+  <dimension ref="A1:C833"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="F618" sqref="F618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9285,7 +9282,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B377">
         <v>2</v>
@@ -9296,7 +9293,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -9307,7 +9304,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -9318,7 +9315,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -9329,7 +9326,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -9340,7 +9337,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B382">
         <v>2</v>
@@ -9351,7 +9348,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -9362,7 +9359,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B384">
         <v>2</v>
@@ -9373,7 +9370,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B385">
         <v>2</v>
@@ -9384,7 +9381,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -9395,7 +9392,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -9406,7 +9403,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -9417,7 +9414,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -9428,7 +9425,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B390">
         <v>2</v>
@@ -9439,7 +9436,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B391">
         <v>2</v>
@@ -9450,7 +9447,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B392">
         <v>2</v>
@@ -9461,7 +9458,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B393">
         <v>2</v>
@@ -9472,7 +9469,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -9483,7 +9480,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B395">
         <v>2</v>
@@ -9494,7 +9491,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B396">
         <v>2</v>
@@ -9505,7 +9502,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B397">
         <v>2</v>
@@ -9516,7 +9513,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B398">
         <v>2</v>
@@ -9527,7 +9524,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B399">
         <v>2</v>
@@ -9538,7 +9535,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B400">
         <v>2</v>
@@ -9549,7 +9546,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B401">
         <v>2</v>
@@ -9560,7 +9557,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -9571,7 +9568,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B403">
         <v>2</v>
@@ -9582,7 +9579,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B404">
         <v>2</v>
@@ -9593,7 +9590,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B405">
         <v>2</v>
@@ -9604,7 +9601,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B406">
         <v>2</v>
@@ -9615,7 +9612,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B407">
         <v>2</v>
@@ -9626,7 +9623,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B408">
         <v>2</v>
@@ -9637,7 +9634,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -9648,7 +9645,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B410">
         <v>2</v>
@@ -9659,7 +9656,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B411">
         <v>2</v>
@@ -9670,7 +9667,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B412">
         <v>2</v>
@@ -9681,7 +9678,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B413">
         <v>2</v>
@@ -9692,7 +9689,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B414">
         <v>2</v>
@@ -9703,7 +9700,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B415">
         <v>2</v>
@@ -9714,7 +9711,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B416">
         <v>2</v>
@@ -9725,7 +9722,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B417">
         <v>2</v>
@@ -9736,7 +9733,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B418">
         <v>2</v>
@@ -9747,7 +9744,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -9758,7 +9755,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B420">
         <v>2</v>
@@ -9769,7 +9766,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B421">
         <v>2</v>
@@ -9780,7 +9777,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B422">
         <v>2</v>
@@ -9791,7 +9788,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B423">
         <v>2</v>
@@ -9802,7 +9799,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B424">
         <v>2</v>
@@ -9813,7 +9810,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B425">
         <v>2</v>
@@ -9824,7 +9821,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B426">
         <v>2</v>
@@ -9835,7 +9832,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B427">
         <v>2</v>
@@ -9846,7 +9843,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B428">
         <v>2</v>
@@ -9857,7 +9854,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B429">
         <v>2</v>
@@ -9868,7 +9865,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -9879,7 +9876,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B431">
         <v>2</v>
@@ -9890,7 +9887,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B432">
         <v>2</v>
@@ -9901,7 +9898,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B433">
         <v>2</v>
@@ -9912,7 +9909,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B434">
         <v>2</v>
@@ -9923,7 +9920,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B435">
         <v>2</v>
@@ -9934,7 +9931,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B436">
         <v>2</v>
@@ -9945,7 +9942,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B437">
         <v>2</v>
@@ -9967,7 +9964,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B439">
         <v>2</v>
@@ -9978,7 +9975,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -9989,7 +9986,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -10000,7 +9997,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -10011,7 +10008,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -10022,7 +10019,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -10033,7 +10030,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -10044,7 +10041,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -10055,7 +10052,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -10066,7 +10063,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -10077,7 +10074,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -10088,7 +10085,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -10099,7 +10096,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -10110,7 +10107,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -10121,7 +10118,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -10132,7 +10129,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -10143,7 +10140,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -10154,7 +10151,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -10165,7 +10162,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -10176,7 +10173,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -10187,7 +10184,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -10198,7 +10195,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -10209,7 +10206,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -10220,7 +10217,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -10231,7 +10228,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -10242,7 +10239,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -10253,7 +10250,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -10264,7 +10261,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -10275,7 +10272,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -10286,7 +10283,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -10297,7 +10294,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -10308,7 +10305,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -10319,7 +10316,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -10330,7 +10327,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -10341,7 +10338,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -10352,7 +10349,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -10363,7 +10360,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -10374,7 +10371,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -10385,7 +10382,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -10396,7 +10393,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -10407,7 +10404,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -10418,7 +10415,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -10429,7 +10426,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -10440,7 +10437,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -10451,7 +10448,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -10462,7 +10459,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -10473,7 +10470,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -10484,7 +10481,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -10495,7 +10492,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -10506,7 +10503,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -10517,7 +10514,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -10528,7 +10525,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -10539,7 +10536,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -10550,7 +10547,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -10561,7 +10558,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -10572,7 +10569,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -10583,7 +10580,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -10594,7 +10591,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -10605,7 +10602,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -10616,7 +10613,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -10627,7 +10624,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -10638,7 +10635,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -10649,7 +10646,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B501">
         <v>1</v>
@@ -10660,7 +10657,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -10671,7 +10668,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -10682,7 +10679,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -10693,7 +10690,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -10704,7 +10701,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -10715,7 +10712,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -10726,7 +10723,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -10737,7 +10734,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -10748,7 +10745,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -10759,7 +10756,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -10770,7 +10767,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -10781,7 +10778,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -10792,7 +10789,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -10803,7 +10800,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -10814,7 +10811,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -10825,7 +10822,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -10836,7 +10833,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -10847,7 +10844,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -10858,7 +10855,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -10869,7 +10866,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -10880,7 +10877,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -10891,7 +10888,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -10902,7 +10899,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -10913,7 +10910,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B525">
         <v>1</v>
@@ -10924,7 +10921,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -10935,7 +10932,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -10946,7 +10943,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -10957,7 +10954,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -10968,7 +10965,7 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -10979,7 +10976,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -10990,7 +10987,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -11001,7 +10998,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -11012,7 +11009,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -11023,7 +11020,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -11034,7 +11031,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -11045,7 +11042,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -11056,7 +11053,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -11067,7 +11064,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -11078,7 +11075,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -11089,7 +11086,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -11100,7 +11097,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -11111,7 +11108,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -11122,7 +11119,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -11133,7 +11130,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -11144,7 +11141,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -11155,7 +11152,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -11166,7 +11163,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -11177,7 +11174,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -11188,7 +11185,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -11199,7 +11196,7 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -11210,7 +11207,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -11221,7 +11218,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -11232,7 +11229,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -11243,7 +11240,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -11254,7 +11251,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -11265,7 +11262,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -11276,7 +11273,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -11287,7 +11284,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -11298,7 +11295,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -11309,7 +11306,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -11320,7 +11317,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -11331,7 +11328,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -11342,7 +11339,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -11353,7 +11350,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -11364,7 +11361,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -11375,7 +11372,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -11386,7 +11383,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -11397,7 +11394,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -11408,7 +11405,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -11419,7 +11416,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -11430,7 +11427,7 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -11441,7 +11438,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -11452,7 +11449,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -11463,7 +11460,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -11474,7 +11471,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -11485,7 +11482,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -11496,7 +11493,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -11507,7 +11504,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -11518,7 +11515,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -11529,7 +11526,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -11540,7 +11537,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -11551,7 +11548,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -11562,7 +11559,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -11573,7 +11570,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -11584,7 +11581,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -11595,7 +11592,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -11606,7 +11603,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -11617,7 +11614,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -11628,7 +11625,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -11639,7 +11636,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -11650,7 +11647,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B592">
         <v>1</v>
@@ -11661,7 +11658,7 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -11672,7 +11669,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -11683,7 +11680,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -11694,7 +11691,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -11705,7 +11702,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -11716,7 +11713,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -11727,7 +11724,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -11738,7 +11735,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -11749,7 +11746,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -11760,7 +11757,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -11771,7 +11768,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -11793,7 +11790,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -11804,7 +11801,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -11815,7 +11812,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -11826,7 +11823,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B608">
         <v>1</v>
@@ -11837,7 +11834,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B609">
         <v>1</v>
@@ -11848,7 +11845,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -11859,7 +11856,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B611">
         <v>1</v>
@@ -11870,7 +11867,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -11881,7 +11878,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B613">
         <v>1</v>
@@ -11892,7 +11889,7 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B614">
         <v>1</v>
@@ -11903,7 +11900,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B615">
         <v>1</v>
@@ -11914,7 +11911,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -11925,7 +11922,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -11936,7 +11933,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -11947,7 +11944,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -11958,7 +11955,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B620">
         <v>1</v>
@@ -11969,7 +11966,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B621">
         <v>1</v>
@@ -11980,7 +11977,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -11991,7 +11988,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -12002,7 +11999,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -12013,7 +12010,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -12024,7 +12021,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B626">
         <v>1</v>
@@ -12035,7 +12032,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -12046,7 +12043,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>538</v>
+        <v>792</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -12310,7 +12307,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>816</v>
+        <v>543</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -12321,7 +12318,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>544</v>
+        <v>816</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -13355,7 +13352,7 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>910</v>
+        <v>585</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -13366,7 +13363,7 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>586</v>
+        <v>910</v>
       </c>
       <c r="B748">
         <v>1</v>
@@ -13652,7 +13649,7 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>936</v>
+        <v>592</v>
       </c>
       <c r="B774">
         <v>1</v>
@@ -13663,7 +13660,7 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>593</v>
+        <v>936</v>
       </c>
       <c r="B775">
         <v>1</v>
@@ -14158,7 +14155,7 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>981</v>
+        <v>601</v>
       </c>
       <c r="B820">
         <v>1</v>
@@ -14169,7 +14166,7 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>602</v>
+        <v>981</v>
       </c>
       <c r="B821">
         <v>1</v>
@@ -14301,23 +14298,12 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>993</v>
+        <v>606</v>
       </c>
       <c r="B833">
         <v>1</v>
       </c>
       <c r="C833">
-        <v>2.6910656620021501E-2</v>
-      </c>
-    </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
-        <v>607</v>
-      </c>
-      <c r="B834">
-        <v>1</v>
-      </c>
-      <c r="C834">
         <v>2.6910656620021501E-2</v>
       </c>
     </row>

--- a/data/FINAL RESULT - UNPHOTOGRAPHED BY TAXONOMY.xlsx
+++ b/data/FINAL RESULT - UNPHOTOGRAPHED BY TAXONOMY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FFE6DA-A3AF-47CB-8787-5423A57B107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C023143F-9180-4676-922B-BB5E1E9F20E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1D693BA0-6E93-4BC9-9600-95AA5D82E393}"/>
   </bookViews>
@@ -3369,12 +3369,12 @@
   <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3396,7 +3396,7 @@
         <v>343</v>
       </c>
       <c r="C2">
-        <v>9.2303552206673807</v>
+        <v>9.2328398384925894</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>324</v>
       </c>
       <c r="C3">
-        <v>8.7190527448869695</v>
+        <v>8.7213997308209894</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>265</v>
       </c>
       <c r="C4">
-        <v>7.1313240043057</v>
+        <v>7.1332436069986498</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
         <v>260</v>
       </c>
       <c r="C5">
-        <v>6.9967707212055901</v>
+        <v>6.9986541049798099</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3440,7 +3440,7 @@
         <v>254</v>
       </c>
       <c r="C6">
-        <v>6.8353067814854596</v>
+        <v>6.8371467025571997</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>148</v>
       </c>
       <c r="C7">
-        <v>3.9827771797631799</v>
+        <v>3.9838492597577302</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3462,7 +3462,7 @@
         <v>138</v>
       </c>
       <c r="C8">
-        <v>3.7136706135629698</v>
+        <v>3.7146702557200499</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>117</v>
       </c>
       <c r="C9">
-        <v>3.1485468245425099</v>
+        <v>3.1493943472409098</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>91</v>
       </c>
       <c r="C10">
-        <v>2.4488697524219498</v>
+        <v>2.4495289367429298</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>87</v>
       </c>
       <c r="C11">
-        <v>2.3412271259418702</v>
+        <v>2.3418573351278602</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>82</v>
       </c>
       <c r="C12">
-        <v>2.2066738428417598</v>
+        <v>2.2072678331090101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3517,7 +3517,7 @@
         <v>79</v>
       </c>
       <c r="C13">
-        <v>2.1259418729816999</v>
+        <v>2.1265141318977099</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>78</v>
       </c>
       <c r="C14">
-        <v>2.09903121636167</v>
+        <v>2.09959623149394</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>65</v>
       </c>
       <c r="C15">
-        <v>1.74919268030139</v>
+        <v>1.74966352624495</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
         <v>62</v>
       </c>
       <c r="C16">
-        <v>1.66846071044133</v>
+        <v>1.66890982503364</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>1.61463939720129</v>
+        <v>1.6150740242261099</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3572,29 +3572,29 @@
         <v>59</v>
       </c>
       <c r="C18">
-        <v>1.5877287405812699</v>
+        <v>1.5881561238223401</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>56</v>
       </c>
       <c r="C19">
-        <v>1.5069967707212</v>
+        <v>1.5074024226110301</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B20">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>1.5069967707212</v>
+        <v>1.48048452220726</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>54</v>
       </c>
       <c r="C21">
-        <v>1.4531754574811599</v>
+        <v>1.4535666218034899</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3616,7 +3616,7 @@
         <v>42</v>
       </c>
       <c r="C22">
-        <v>1.1302475780409</v>
+        <v>1.13055181695827</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>42</v>
       </c>
       <c r="C23">
-        <v>1.1302475780409</v>
+        <v>1.13055181695827</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>38</v>
       </c>
       <c r="C24">
-        <v>1.02260495156081</v>
+        <v>1.0228802153431999</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3649,7 +3649,7 @@
         <v>37</v>
       </c>
       <c r="C25">
-        <v>0.99569429494079598</v>
+        <v>0.99596231493943399</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>0.99569429494079598</v>
+        <v>0.99596231493943399</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>35</v>
       </c>
       <c r="C27">
-        <v>0.94187298170075295</v>
+        <v>0.94212651413189696</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.88805166846071004</v>
+        <v>0.88829071332436005</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3693,7 +3693,7 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>0.88805166846071004</v>
+        <v>0.88829071332436005</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3704,7 +3704,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.80731969860064501</v>
+        <v>0.80753701211305495</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
         <v>28</v>
       </c>
       <c r="C31">
-        <v>0.75349838536060199</v>
+        <v>0.75370121130551804</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
         <v>25</v>
       </c>
       <c r="C32">
-        <v>0.67276641550053795</v>
+        <v>0.67294751009421205</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3737,7 +3737,7 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3748,7 +3748,7 @@
         <v>23</v>
       </c>
       <c r="C34">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>22</v>
       </c>
       <c r="C35">
-        <v>0.59203444564047303</v>
+        <v>0.59219380888290696</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3770,7 +3770,7 @@
         <v>22</v>
       </c>
       <c r="C36">
-        <v>0.59203444564047303</v>
+        <v>0.59219380888290696</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3781,7 +3781,7 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <v>0.51130247578040899</v>
+        <v>0.51144010767160097</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3792,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <v>0.48439181916038698</v>
+        <v>0.48452220726783302</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3803,7 +3803,7 @@
         <v>16</v>
       </c>
       <c r="C39">
-        <v>0.43057050592034402</v>
+        <v>0.43068640646029599</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3814,7 +3814,7 @@
         <v>16</v>
       </c>
       <c r="C40">
-        <v>0.43057050592034402</v>
+        <v>0.43068640646029599</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3825,7 +3825,7 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>0.403659849300322</v>
+        <v>0.40376850605652698</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3836,7 +3836,7 @@
         <v>15</v>
       </c>
       <c r="C42">
-        <v>0.403659849300322</v>
+        <v>0.40376850605652698</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3847,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3858,7 +3858,7 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3880,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3891,7 +3891,7 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3902,7 +3902,7 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3913,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3924,7 +3924,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3935,7 +3935,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,7 +3957,7 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3979,7 +3979,7 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3990,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -4001,7 +4001,7 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -4012,7 +4012,7 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -4023,7 +4023,7 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
         <v>8</v>
       </c>
       <c r="C61">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -4056,7 +4056,7 @@
         <v>8</v>
       </c>
       <c r="C62">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -4078,7 +4078,7 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -4089,7 +4089,7 @@
         <v>7</v>
       </c>
       <c r="C65">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="C66">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>6</v>
       </c>
       <c r="C67">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -4122,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -4133,7 +4133,7 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -4144,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="C70">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>6</v>
       </c>
       <c r="C71">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -4166,7 +4166,7 @@
         <v>6</v>
       </c>
       <c r="C72">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -4177,7 +4177,7 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -4188,7 +4188,7 @@
         <v>6</v>
       </c>
       <c r="C74">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -4199,7 +4199,7 @@
         <v>6</v>
       </c>
       <c r="C75">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
         <v>6</v>
       </c>
       <c r="C76">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -4221,7 +4221,7 @@
         <v>5</v>
       </c>
       <c r="C77">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,7 +4243,7 @@
         <v>5</v>
       </c>
       <c r="C79">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -4254,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="C80">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
       <c r="C81">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
         <v>5</v>
       </c>
       <c r="C82">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -4287,7 +4287,7 @@
         <v>5</v>
       </c>
       <c r="C83">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -4298,7 +4298,7 @@
         <v>4</v>
       </c>
       <c r="C84">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -4309,7 +4309,7 @@
         <v>4</v>
       </c>
       <c r="C85">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4331,7 +4331,7 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4342,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="C88">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4353,7 +4353,7 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,7 +4364,7 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4375,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,7 +4386,7 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4397,7 +4397,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4408,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4419,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -4430,7 +4430,7 @@
         <v>4</v>
       </c>
       <c r="C96">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4441,7 +4441,7 @@
         <v>4</v>
       </c>
       <c r="C97">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4452,7 +4452,7 @@
         <v>4</v>
       </c>
       <c r="C98">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4463,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4474,7 +4474,7 @@
         <v>3</v>
       </c>
       <c r="C100">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -4485,7 +4485,7 @@
         <v>3</v>
       </c>
       <c r="C101">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4496,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="C102">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4507,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="C103">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4518,7 +4518,7 @@
         <v>3</v>
       </c>
       <c r="C104">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,7 +4529,7 @@
         <v>3</v>
       </c>
       <c r="C105">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4540,7 +4540,7 @@
         <v>3</v>
       </c>
       <c r="C106">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4551,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="C107">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4562,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="C108">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4573,7 +4573,7 @@
         <v>3</v>
       </c>
       <c r="C109">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4584,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4595,7 +4595,7 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4606,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="C112">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
       <c r="C113">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="C114">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4639,7 +4639,7 @@
         <v>2</v>
       </c>
       <c r="C115">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="C117">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4683,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="C119">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4694,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="C121">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4727,7 +4727,7 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4749,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="C126">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4804,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,7 +4815,7 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4859,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4870,7 +4870,7 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4947,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4991,7 +4991,7 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -5024,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -5046,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -5057,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -5079,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5135,13 +5135,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812373EF-0CAD-4168-9136-5DF84C475D87}">
   <dimension ref="A1:C833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="F618" sqref="F618"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5163,7 +5163,7 @@
         <v>98</v>
       </c>
       <c r="C2">
-        <v>2.6372443487621098</v>
+        <v>2.6379542395693099</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5174,7 +5174,7 @@
         <v>78</v>
       </c>
       <c r="C3">
-        <v>2.09903121636167</v>
+        <v>2.09959623149394</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5185,7 +5185,7 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>1.5339074273412201</v>
+        <v>1.5343203230147999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5196,7 +5196,7 @@
         <v>54</v>
       </c>
       <c r="C5">
-        <v>1.4531754574811599</v>
+        <v>1.4535666218034899</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5207,7 +5207,7 @@
         <v>53</v>
       </c>
       <c r="C6">
-        <v>1.42626480086114</v>
+        <v>1.4266487213997301</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5218,7 +5218,7 @@
         <v>46</v>
       </c>
       <c r="C7">
-        <v>1.2378902045209901</v>
+        <v>1.2382234185733501</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5229,7 +5229,7 @@
         <v>43</v>
       </c>
       <c r="C8">
-        <v>1.1571582346609199</v>
+        <v>1.1574697173620401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5240,7 +5240,7 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <v>1.1302475780409</v>
+        <v>1.13055181695827</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5251,7 +5251,7 @@
         <v>40</v>
       </c>
       <c r="C10">
-        <v>1.07642626480086</v>
+        <v>1.0767160161507401</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5262,7 +5262,7 @@
         <v>40</v>
       </c>
       <c r="C11">
-        <v>1.07642626480086</v>
+        <v>1.0767160161507401</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5273,7 +5273,7 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>1.02260495156081</v>
+        <v>1.0228802153431999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5284,7 +5284,7 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>0.99569429494079598</v>
+        <v>0.99596231493943399</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5295,7 +5295,7 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>0.94187298170075295</v>
+        <v>0.94212651413189696</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5306,7 +5306,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>0.83423035522066702</v>
+        <v>0.83445491251682302</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5317,7 +5317,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>0.80731969860064501</v>
+        <v>0.80753701211305495</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5328,7 +5328,7 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <v>0.80731969860064501</v>
+        <v>0.80753701211305495</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5339,7 +5339,7 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <v>0.80731969860064501</v>
+        <v>0.80753701211305495</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>0.72658772874058097</v>
+        <v>0.72678331090174897</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5361,7 +5361,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>0.72658772874058097</v>
+        <v>0.72678331090174897</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5372,7 +5372,7 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>0.67276641550053795</v>
+        <v>0.67294751009421205</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5383,7 +5383,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>0.67276641550053795</v>
+        <v>0.67294751009421205</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5394,7 +5394,7 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>0.67276641550053795</v>
+        <v>0.67294751009421205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5405,7 +5405,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.64585575888051605</v>
+        <v>0.64602960969044398</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5438,7 +5438,7 @@
         <v>23</v>
       </c>
       <c r="C27">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5449,7 +5449,7 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5460,7 +5460,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,7 +5471,7 @@
         <v>23</v>
       </c>
       <c r="C30">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5482,7 +5482,7 @@
         <v>23</v>
       </c>
       <c r="C31">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5493,7 +5493,7 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,7 +5504,7 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.61894510226049504</v>
+        <v>0.61911170928667503</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -5515,7 +5515,7 @@
         <v>22</v>
       </c>
       <c r="C34">
-        <v>0.59203444564047303</v>
+        <v>0.59219380888290696</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5526,7 +5526,7 @@
         <v>21</v>
       </c>
       <c r="C35">
-        <v>0.56512378902045202</v>
+        <v>0.565275908479138</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5537,7 +5537,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>0.53821313240043001</v>
+        <v>0.53835800807537004</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5548,7 +5548,7 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>0.53821313240043001</v>
+        <v>0.53835800807537004</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5559,7 +5559,7 @@
         <v>19</v>
       </c>
       <c r="C38">
-        <v>0.51130247578040899</v>
+        <v>0.51144010767160097</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
         <v>19</v>
       </c>
       <c r="C39">
-        <v>0.51130247578040899</v>
+        <v>0.51144010767160097</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5581,7 +5581,7 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <v>0.51130247578040899</v>
+        <v>0.51144010767160097</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <v>0.51130247578040899</v>
+        <v>0.51144010767160097</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5603,7 +5603,7 @@
         <v>19</v>
       </c>
       <c r="C42">
-        <v>0.51130247578040899</v>
+        <v>0.51144010767160097</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5614,7 +5614,7 @@
         <v>19</v>
       </c>
       <c r="C43">
-        <v>0.51130247578040899</v>
+        <v>0.51144010767160097</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5625,7 +5625,7 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>0.48439181916038698</v>
+        <v>0.48452220726783302</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5636,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="C45">
-        <v>0.48439181916038698</v>
+        <v>0.48452220726783302</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5647,7 +5647,7 @@
         <v>18</v>
       </c>
       <c r="C46">
-        <v>0.48439181916038698</v>
+        <v>0.48452220726783302</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5658,7 +5658,7 @@
         <v>18</v>
       </c>
       <c r="C47">
-        <v>0.48439181916038698</v>
+        <v>0.48452220726783302</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -5669,7 +5669,7 @@
         <v>16</v>
       </c>
       <c r="C48">
-        <v>0.43057050592034402</v>
+        <v>0.43068640646029599</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -5680,7 +5680,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>0.43057050592034402</v>
+        <v>0.43068640646029599</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -5691,7 +5691,7 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.43057050592034402</v>
+        <v>0.43068640646029599</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -5702,7 +5702,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>0.43057050592034402</v>
+        <v>0.43068640646029599</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -5713,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="C52">
-        <v>0.43057050592034402</v>
+        <v>0.43068640646029599</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -5724,7 +5724,7 @@
         <v>15</v>
       </c>
       <c r="C53">
-        <v>0.403659849300322</v>
+        <v>0.40376850605652698</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5735,7 +5735,7 @@
         <v>15</v>
       </c>
       <c r="C54">
-        <v>0.403659849300322</v>
+        <v>0.40376850605652698</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5746,7 +5746,7 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>0.403659849300322</v>
+        <v>0.40376850605652698</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5757,7 +5757,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>0.403659849300322</v>
+        <v>0.40376850605652698</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,7 +5768,7 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>0.37674919268030099</v>
+        <v>0.37685060565275902</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,7 +5779,7 @@
         <v>14</v>
       </c>
       <c r="C58">
-        <v>0.37674919268030099</v>
+        <v>0.37685060565275902</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,7 +5790,7 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>0.37674919268030099</v>
+        <v>0.37685060565275902</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5801,7 +5801,7 @@
         <v>14</v>
       </c>
       <c r="C60">
-        <v>0.37674919268030099</v>
+        <v>0.37685060565275902</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,7 +5812,7 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>0.37674919268030099</v>
+        <v>0.37685060565275902</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,7 +5823,7 @@
         <v>14</v>
       </c>
       <c r="C62">
-        <v>0.37674919268030099</v>
+        <v>0.37685060565275902</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,7 +5834,7 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>0.34983853606027898</v>
+        <v>0.34993270524899001</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,7 +5845,7 @@
         <v>13</v>
       </c>
       <c r="C64">
-        <v>0.34983853606027898</v>
+        <v>0.34993270524899001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,7 +5856,7 @@
         <v>13</v>
       </c>
       <c r="C65">
-        <v>0.34983853606027898</v>
+        <v>0.34993270524899001</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -5867,7 +5867,7 @@
         <v>13</v>
       </c>
       <c r="C66">
-        <v>0.34983853606027898</v>
+        <v>0.34993270524899001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="C67">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -5889,7 +5889,7 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,7 +5900,7 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,7 +5911,7 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -5922,7 +5922,7 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,7 +5933,7 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -5944,7 +5944,7 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -5955,7 +5955,7 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5966,7 +5966,7 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>0.32292787944025803</v>
+        <v>0.32301480484522199</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -5977,7 +5977,7 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -5988,7 +5988,7 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
         <v>11</v>
       </c>
       <c r="C79">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -6021,7 +6021,7 @@
         <v>11</v>
       </c>
       <c r="C80">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -6032,7 +6032,7 @@
         <v>11</v>
       </c>
       <c r="C81">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -6054,7 +6054,7 @@
         <v>11</v>
       </c>
       <c r="C83">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -6065,7 +6065,7 @@
         <v>11</v>
       </c>
       <c r="C84">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -6076,7 +6076,7 @@
         <v>11</v>
       </c>
       <c r="C85">
-        <v>0.29601722282023601</v>
+        <v>0.29609690444145298</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -6087,7 +6087,7 @@
         <v>10</v>
       </c>
       <c r="C86">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -6098,7 +6098,7 @@
         <v>10</v>
       </c>
       <c r="C87">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -6109,7 +6109,7 @@
         <v>10</v>
       </c>
       <c r="C88">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,7 +6120,7 @@
         <v>10</v>
       </c>
       <c r="C89">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -6131,7 +6131,7 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -6142,7 +6142,7 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -6153,7 +6153,7 @@
         <v>10</v>
       </c>
       <c r="C92">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -6164,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>0.269106566200215</v>
+        <v>0.26917900403768502</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -6175,7 +6175,7 @@
         <v>9</v>
       </c>
       <c r="C94">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -6186,7 +6186,7 @@
         <v>9</v>
       </c>
       <c r="C95">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -6197,7 +6197,7 @@
         <v>9</v>
       </c>
       <c r="C96">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -6208,7 +6208,7 @@
         <v>9</v>
       </c>
       <c r="C97">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -6219,7 +6219,7 @@
         <v>9</v>
       </c>
       <c r="C98">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -6230,7 +6230,7 @@
         <v>9</v>
       </c>
       <c r="C99">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -6241,7 +6241,7 @@
         <v>9</v>
       </c>
       <c r="C100">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -6252,7 +6252,7 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -6263,7 +6263,7 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -6274,7 +6274,7 @@
         <v>9</v>
       </c>
       <c r="C103">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>9</v>
       </c>
       <c r="C105">
-        <v>0.24219590958019299</v>
+        <v>0.24226110363391601</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -6307,7 +6307,7 @@
         <v>8</v>
       </c>
       <c r="C106">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -6318,7 +6318,7 @@
         <v>8</v>
       </c>
       <c r="C107">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -6329,7 +6329,7 @@
         <v>8</v>
       </c>
       <c r="C108">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -6340,7 +6340,7 @@
         <v>8</v>
       </c>
       <c r="C109">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6351,7 +6351,7 @@
         <v>8</v>
       </c>
       <c r="C110">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -6362,7 +6362,7 @@
         <v>8</v>
       </c>
       <c r="C111">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6373,7 +6373,7 @@
         <v>8</v>
       </c>
       <c r="C112">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6384,7 +6384,7 @@
         <v>8</v>
       </c>
       <c r="C113">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -6395,7 +6395,7 @@
         <v>8</v>
       </c>
       <c r="C114">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6406,7 +6406,7 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6417,7 +6417,7 @@
         <v>8</v>
       </c>
       <c r="C116">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6428,7 +6428,7 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6439,7 +6439,7 @@
         <v>8</v>
       </c>
       <c r="C118">
-        <v>0.21528525296017201</v>
+        <v>0.21534320323014799</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
         <v>7</v>
       </c>
       <c r="C119">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6461,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="C120">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -6472,7 +6472,7 @@
         <v>7</v>
       </c>
       <c r="C121">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="C122">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6494,7 +6494,7 @@
         <v>7</v>
       </c>
       <c r="C123">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,7 +6505,7 @@
         <v>7</v>
       </c>
       <c r="C124">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -6516,7 +6516,7 @@
         <v>7</v>
       </c>
       <c r="C125">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -6527,7 +6527,7 @@
         <v>7</v>
       </c>
       <c r="C126">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -6538,7 +6538,7 @@
         <v>7</v>
       </c>
       <c r="C127">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -6549,7 +6549,7 @@
         <v>7</v>
       </c>
       <c r="C128">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -6560,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="C129">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -6571,7 +6571,7 @@
         <v>7</v>
       </c>
       <c r="C130">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -6582,7 +6582,7 @@
         <v>7</v>
       </c>
       <c r="C131">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -6593,7 +6593,7 @@
         <v>7</v>
       </c>
       <c r="C132">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>7</v>
       </c>
       <c r="C133">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -6615,7 +6615,7 @@
         <v>7</v>
       </c>
       <c r="C134">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -6626,7 +6626,7 @@
         <v>7</v>
       </c>
       <c r="C135">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -6637,7 +6637,7 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>7</v>
       </c>
       <c r="C137">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -6659,7 +6659,7 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -6670,7 +6670,7 @@
         <v>7</v>
       </c>
       <c r="C139">
-        <v>0.18837459634015</v>
+        <v>0.18842530282637901</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -6681,7 +6681,7 @@
         <v>6</v>
       </c>
       <c r="C140">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -6692,7 +6692,7 @@
         <v>6</v>
       </c>
       <c r="C141">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -6703,7 +6703,7 @@
         <v>6</v>
       </c>
       <c r="C142">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -6714,7 +6714,7 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -6725,7 +6725,7 @@
         <v>6</v>
       </c>
       <c r="C144">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -6736,7 +6736,7 @@
         <v>6</v>
       </c>
       <c r="C145">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -6747,7 +6747,7 @@
         <v>6</v>
       </c>
       <c r="C146">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -6758,7 +6758,7 @@
         <v>6</v>
       </c>
       <c r="C147">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -6769,7 +6769,7 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -6780,7 +6780,7 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -6791,7 +6791,7 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -6802,7 +6802,7 @@
         <v>6</v>
       </c>
       <c r="C151">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -6813,7 +6813,7 @@
         <v>6</v>
       </c>
       <c r="C152">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -6824,7 +6824,7 @@
         <v>6</v>
       </c>
       <c r="C153">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -6835,7 +6835,7 @@
         <v>6</v>
       </c>
       <c r="C154">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -6846,7 +6846,7 @@
         <v>6</v>
       </c>
       <c r="C155">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -6857,7 +6857,7 @@
         <v>6</v>
       </c>
       <c r="C156">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -6868,7 +6868,7 @@
         <v>6</v>
       </c>
       <c r="C157">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -6879,7 +6879,7 @@
         <v>6</v>
       </c>
       <c r="C158">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -6890,7 +6890,7 @@
         <v>6</v>
       </c>
       <c r="C159">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -6901,7 +6901,7 @@
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -6912,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -6923,7 +6923,7 @@
         <v>6</v>
       </c>
       <c r="C162">
-        <v>0.16146393972012901</v>
+        <v>0.161507402422611</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -6934,7 +6934,7 @@
         <v>5</v>
       </c>
       <c r="C163">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -6945,7 +6945,7 @@
         <v>5</v>
       </c>
       <c r="C164">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -6956,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
         <v>5</v>
       </c>
       <c r="C166">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -6978,7 +6978,7 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -6989,7 +6989,7 @@
         <v>5</v>
       </c>
       <c r="C168">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -7000,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="C169">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -7011,7 +7011,7 @@
         <v>5</v>
       </c>
       <c r="C170">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -7022,7 +7022,7 @@
         <v>5</v>
       </c>
       <c r="C171">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -7033,7 +7033,7 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -7044,7 +7044,7 @@
         <v>5</v>
       </c>
       <c r="C173">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -7055,7 +7055,7 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -7066,7 +7066,7 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -7077,7 +7077,7 @@
         <v>5</v>
       </c>
       <c r="C176">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -7088,7 +7088,7 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -7099,7 +7099,7 @@
         <v>5</v>
       </c>
       <c r="C178">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -7110,7 +7110,7 @@
         <v>5</v>
       </c>
       <c r="C179">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -7121,7 +7121,7 @@
         <v>5</v>
       </c>
       <c r="C180">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -7132,7 +7132,7 @@
         <v>5</v>
       </c>
       <c r="C181">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -7143,7 +7143,7 @@
         <v>5</v>
       </c>
       <c r="C182">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -7154,7 +7154,7 @@
         <v>5</v>
       </c>
       <c r="C183">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -7176,7 +7176,7 @@
         <v>5</v>
       </c>
       <c r="C185">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -7187,7 +7187,7 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -7198,7 +7198,7 @@
         <v>5</v>
       </c>
       <c r="C187">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -7209,7 +7209,7 @@
         <v>5</v>
       </c>
       <c r="C188">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -7220,7 +7220,7 @@
         <v>5</v>
       </c>
       <c r="C189">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -7231,7 +7231,7 @@
         <v>5</v>
       </c>
       <c r="C190">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -7242,7 +7242,7 @@
         <v>5</v>
       </c>
       <c r="C191">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -7253,7 +7253,7 @@
         <v>5</v>
       </c>
       <c r="C192">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -7264,7 +7264,7 @@
         <v>5</v>
       </c>
       <c r="C193">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -7275,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="C194">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -7286,7 +7286,7 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -7297,7 +7297,7 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -7308,7 +7308,7 @@
         <v>5</v>
       </c>
       <c r="C197">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -7319,7 +7319,7 @@
         <v>5</v>
       </c>
       <c r="C198">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -7330,7 +7330,7 @@
         <v>5</v>
       </c>
       <c r="C199">
-        <v>0.134553283100107</v>
+        <v>0.13458950201884201</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -7341,7 +7341,7 @@
         <v>4</v>
       </c>
       <c r="C200">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -7352,7 +7352,7 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -7363,7 +7363,7 @@
         <v>4</v>
       </c>
       <c r="C202">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -7374,7 +7374,7 @@
         <v>4</v>
       </c>
       <c r="C203">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -7385,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="C204">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="C205">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -7407,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="C206">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -7418,7 +7418,7 @@
         <v>4</v>
       </c>
       <c r="C207">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -7429,7 +7429,7 @@
         <v>4</v>
       </c>
       <c r="C208">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -7440,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="C209">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -7451,7 +7451,7 @@
         <v>4</v>
       </c>
       <c r="C210">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -7462,7 +7462,7 @@
         <v>4</v>
       </c>
       <c r="C211">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -7473,7 +7473,7 @@
         <v>4</v>
       </c>
       <c r="C212">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -7484,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -7495,7 +7495,7 @@
         <v>4</v>
       </c>
       <c r="C214">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -7506,7 +7506,7 @@
         <v>4</v>
       </c>
       <c r="C215">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -7517,7 +7517,7 @@
         <v>4</v>
       </c>
       <c r="C216">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -7528,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="C217">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -7539,7 +7539,7 @@
         <v>4</v>
       </c>
       <c r="C218">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -7550,7 +7550,7 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="C220">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -7572,7 +7572,7 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -7583,7 +7583,7 @@
         <v>4</v>
       </c>
       <c r="C222">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -7594,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="C223">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -7605,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -7616,7 +7616,7 @@
         <v>4</v>
       </c>
       <c r="C225">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -7627,7 +7627,7 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -7638,7 +7638,7 @@
         <v>4</v>
       </c>
       <c r="C227">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -7649,7 +7649,7 @@
         <v>4</v>
       </c>
       <c r="C228">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -7671,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="C230">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -7682,7 +7682,7 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -7693,7 +7693,7 @@
         <v>4</v>
       </c>
       <c r="C232">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -7704,7 +7704,7 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -7715,7 +7715,7 @@
         <v>4</v>
       </c>
       <c r="C234">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -7726,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="C235">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -7737,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -7748,7 +7748,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="C238">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -7770,7 +7770,7 @@
         <v>4</v>
       </c>
       <c r="C239">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -7781,7 +7781,7 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -7792,7 +7792,7 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -7803,7 +7803,7 @@
         <v>4</v>
       </c>
       <c r="C242">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -7814,7 +7814,7 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -7825,7 +7825,7 @@
         <v>4</v>
       </c>
       <c r="C244">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
         <v>4</v>
       </c>
       <c r="C245">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -7847,7 +7847,7 @@
         <v>4</v>
       </c>
       <c r="C246">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -7858,7 +7858,7 @@
         <v>4</v>
       </c>
       <c r="C247">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -7869,7 +7869,7 @@
         <v>4</v>
       </c>
       <c r="C248">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -7880,7 +7880,7 @@
         <v>4</v>
       </c>
       <c r="C249">
-        <v>0.107642626480086</v>
+        <v>0.107671601615074</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="C250">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -7902,7 +7902,7 @@
         <v>3</v>
       </c>
       <c r="C251">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -7913,7 +7913,7 @@
         <v>3</v>
       </c>
       <c r="C252">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -7924,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="C253">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -7935,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="C254">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -7946,7 +7946,7 @@
         <v>3</v>
       </c>
       <c r="C255">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -7957,7 +7957,7 @@
         <v>3</v>
       </c>
       <c r="C256">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -7968,7 +7968,7 @@
         <v>3</v>
       </c>
       <c r="C257">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -7979,7 +7979,7 @@
         <v>3</v>
       </c>
       <c r="C258">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -7990,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="C259">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -8001,7 +8001,7 @@
         <v>3</v>
       </c>
       <c r="C260">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>3</v>
       </c>
       <c r="C261">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -8023,7 +8023,7 @@
         <v>3</v>
       </c>
       <c r="C262">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -8034,7 +8034,7 @@
         <v>3</v>
       </c>
       <c r="C263">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -8045,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="C264">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -8056,7 +8056,7 @@
         <v>3</v>
       </c>
       <c r="C265">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -8067,7 +8067,7 @@
         <v>3</v>
       </c>
       <c r="C266">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -8078,7 +8078,7 @@
         <v>3</v>
       </c>
       <c r="C267">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -8089,7 +8089,7 @@
         <v>3</v>
       </c>
       <c r="C268">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -8100,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="C269">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -8111,7 +8111,7 @@
         <v>3</v>
       </c>
       <c r="C270">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -8122,7 +8122,7 @@
         <v>3</v>
       </c>
       <c r="C271">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -8133,7 +8133,7 @@
         <v>3</v>
       </c>
       <c r="C272">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -8144,7 +8144,7 @@
         <v>3</v>
       </c>
       <c r="C273">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -8155,7 +8155,7 @@
         <v>3</v>
       </c>
       <c r="C274">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -8166,7 +8166,7 @@
         <v>3</v>
       </c>
       <c r="C275">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -8177,7 +8177,7 @@
         <v>3</v>
       </c>
       <c r="C276">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -8188,7 +8188,7 @@
         <v>3</v>
       </c>
       <c r="C277">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="C278">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -8210,7 +8210,7 @@
         <v>3</v>
       </c>
       <c r="C279">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -8221,7 +8221,7 @@
         <v>3</v>
       </c>
       <c r="C280">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -8232,7 +8232,7 @@
         <v>3</v>
       </c>
       <c r="C281">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -8243,7 +8243,7 @@
         <v>3</v>
       </c>
       <c r="C282">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -8254,7 +8254,7 @@
         <v>3</v>
       </c>
       <c r="C283">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -8265,7 +8265,7 @@
         <v>3</v>
       </c>
       <c r="C284">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -8276,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="C285">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -8287,7 +8287,7 @@
         <v>3</v>
       </c>
       <c r="C286">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -8298,7 +8298,7 @@
         <v>3</v>
       </c>
       <c r="C287">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -8309,7 +8309,7 @@
         <v>3</v>
       </c>
       <c r="C288">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -8320,7 +8320,7 @@
         <v>3</v>
       </c>
       <c r="C289">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -8331,7 +8331,7 @@
         <v>3</v>
       </c>
       <c r="C290">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -8342,7 +8342,7 @@
         <v>3</v>
       </c>
       <c r="C291">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -8353,7 +8353,7 @@
         <v>3</v>
       </c>
       <c r="C292">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>3</v>
       </c>
       <c r="C293">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -8375,7 +8375,7 @@
         <v>3</v>
       </c>
       <c r="C294">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -8386,7 +8386,7 @@
         <v>3</v>
       </c>
       <c r="C295">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -8397,7 +8397,7 @@
         <v>3</v>
       </c>
       <c r="C296">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
         <v>3</v>
       </c>
       <c r="C297">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,7 +8419,7 @@
         <v>3</v>
       </c>
       <c r="C298">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -8430,7 +8430,7 @@
         <v>3</v>
       </c>
       <c r="C299">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -8441,7 +8441,7 @@
         <v>3</v>
       </c>
       <c r="C300">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -8452,7 +8452,7 @@
         <v>3</v>
       </c>
       <c r="C301">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -8463,7 +8463,7 @@
         <v>3</v>
       </c>
       <c r="C302">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -8474,7 +8474,7 @@
         <v>3</v>
       </c>
       <c r="C303">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -8485,7 +8485,7 @@
         <v>3</v>
       </c>
       <c r="C304">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -8496,7 +8496,7 @@
         <v>3</v>
       </c>
       <c r="C305">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -8507,7 +8507,7 @@
         <v>3</v>
       </c>
       <c r="C306">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -8518,7 +8518,7 @@
         <v>3</v>
       </c>
       <c r="C307">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -8529,7 +8529,7 @@
         <v>3</v>
       </c>
       <c r="C308">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="C309">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -8551,7 +8551,7 @@
         <v>3</v>
       </c>
       <c r="C310">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -8562,7 +8562,7 @@
         <v>3</v>
       </c>
       <c r="C311">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -8573,7 +8573,7 @@
         <v>3</v>
       </c>
       <c r="C312">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -8584,7 +8584,7 @@
         <v>3</v>
       </c>
       <c r="C313">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -8595,7 +8595,7 @@
         <v>3</v>
       </c>
       <c r="C314">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -8606,7 +8606,7 @@
         <v>3</v>
       </c>
       <c r="C315">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
         <v>3</v>
       </c>
       <c r="C316">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -8628,7 +8628,7 @@
         <v>3</v>
       </c>
       <c r="C317">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -8639,7 +8639,7 @@
         <v>3</v>
       </c>
       <c r="C318">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -8650,7 +8650,7 @@
         <v>3</v>
       </c>
       <c r="C319">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -8661,7 +8661,7 @@
         <v>3</v>
       </c>
       <c r="C320">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -8672,7 +8672,7 @@
         <v>3</v>
       </c>
       <c r="C321">
-        <v>8.0731969860064506E-2</v>
+        <v>8.0753701211305498E-2</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -8683,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="C322">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -8694,7 +8694,7 @@
         <v>2</v>
       </c>
       <c r="C323">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -8705,7 +8705,7 @@
         <v>2</v>
       </c>
       <c r="C324">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -8716,7 +8716,7 @@
         <v>2</v>
       </c>
       <c r="C325">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -8727,7 +8727,7 @@
         <v>2</v>
       </c>
       <c r="C326">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -8738,7 +8738,7 @@
         <v>2</v>
       </c>
       <c r="C327">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -8749,7 +8749,7 @@
         <v>2</v>
       </c>
       <c r="C328">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -8760,7 +8760,7 @@
         <v>2</v>
       </c>
       <c r="C329">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -8771,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="C330">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -8782,7 +8782,7 @@
         <v>2</v>
       </c>
       <c r="C331">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -8793,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="C332">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -8804,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="C333">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -8815,7 +8815,7 @@
         <v>2</v>
       </c>
       <c r="C334">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -8826,7 +8826,7 @@
         <v>2</v>
       </c>
       <c r="C335">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -8837,7 +8837,7 @@
         <v>2</v>
       </c>
       <c r="C336">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -8848,7 +8848,7 @@
         <v>2</v>
       </c>
       <c r="C337">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -8859,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="C338">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -8870,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="C339">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -8881,7 +8881,7 @@
         <v>2</v>
       </c>
       <c r="C340">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -8892,7 +8892,7 @@
         <v>2</v>
       </c>
       <c r="C341">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -8903,7 +8903,7 @@
         <v>2</v>
       </c>
       <c r="C342">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -8914,7 +8914,7 @@
         <v>2</v>
       </c>
       <c r="C343">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -8925,7 +8925,7 @@
         <v>2</v>
       </c>
       <c r="C344">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -8936,7 +8936,7 @@
         <v>2</v>
       </c>
       <c r="C345">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -8947,7 +8947,7 @@
         <v>2</v>
       </c>
       <c r="C346">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -8958,7 +8958,7 @@
         <v>2</v>
       </c>
       <c r="C347">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -8969,7 +8969,7 @@
         <v>2</v>
       </c>
       <c r="C348">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -8980,7 +8980,7 @@
         <v>2</v>
       </c>
       <c r="C349">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -8991,7 +8991,7 @@
         <v>2</v>
       </c>
       <c r="C350">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -9002,7 +9002,7 @@
         <v>2</v>
       </c>
       <c r="C351">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="C352">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -9024,7 +9024,7 @@
         <v>2</v>
       </c>
       <c r="C353">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -9035,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="C354">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -9046,7 +9046,7 @@
         <v>2</v>
       </c>
       <c r="C355">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -9057,7 +9057,7 @@
         <v>2</v>
       </c>
       <c r="C356">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -9068,7 +9068,7 @@
         <v>2</v>
       </c>
       <c r="C357">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -9079,7 +9079,7 @@
         <v>2</v>
       </c>
       <c r="C358">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -9090,7 +9090,7 @@
         <v>2</v>
       </c>
       <c r="C359">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -9101,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="C360">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -9112,7 +9112,7 @@
         <v>2</v>
       </c>
       <c r="C361">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -9123,7 +9123,7 @@
         <v>2</v>
       </c>
       <c r="C362">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -9134,7 +9134,7 @@
         <v>2</v>
       </c>
       <c r="C363">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -9145,7 +9145,7 @@
         <v>2</v>
       </c>
       <c r="C364">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -9156,7 +9156,7 @@
         <v>2</v>
       </c>
       <c r="C365">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -9167,7 +9167,7 @@
         <v>2</v>
       </c>
       <c r="C366">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -9178,7 +9178,7 @@
         <v>2</v>
       </c>
       <c r="C367">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -9189,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="C368">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
         <v>2</v>
       </c>
       <c r="C369">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -9211,7 +9211,7 @@
         <v>2</v>
       </c>
       <c r="C370">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -9222,7 +9222,7 @@
         <v>2</v>
       </c>
       <c r="C371">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -9233,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="C372">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -9244,7 +9244,7 @@
         <v>2</v>
       </c>
       <c r="C373">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -9255,7 +9255,7 @@
         <v>2</v>
       </c>
       <c r="C374">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -9266,7 +9266,7 @@
         <v>2</v>
       </c>
       <c r="C375">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -9277,7 +9277,7 @@
         <v>2</v>
       </c>
       <c r="C376">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -9288,7 +9288,7 @@
         <v>2</v>
       </c>
       <c r="C377">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -9299,7 +9299,7 @@
         <v>2</v>
       </c>
       <c r="C378">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -9310,7 +9310,7 @@
         <v>2</v>
       </c>
       <c r="C379">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -9321,7 +9321,7 @@
         <v>2</v>
       </c>
       <c r="C380">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -9332,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="C381">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -9343,7 +9343,7 @@
         <v>2</v>
       </c>
       <c r="C382">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -9354,7 +9354,7 @@
         <v>2</v>
       </c>
       <c r="C383">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -9365,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="C384">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -9376,7 +9376,7 @@
         <v>2</v>
       </c>
       <c r="C385">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -9387,7 +9387,7 @@
         <v>2</v>
       </c>
       <c r="C386">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -9398,7 +9398,7 @@
         <v>2</v>
       </c>
       <c r="C387">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -9409,7 +9409,7 @@
         <v>2</v>
       </c>
       <c r="C388">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -9420,7 +9420,7 @@
         <v>2</v>
       </c>
       <c r="C389">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -9431,7 +9431,7 @@
         <v>2</v>
       </c>
       <c r="C390">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -9442,7 +9442,7 @@
         <v>2</v>
       </c>
       <c r="C391">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -9453,7 +9453,7 @@
         <v>2</v>
       </c>
       <c r="C392">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -9464,7 +9464,7 @@
         <v>2</v>
       </c>
       <c r="C393">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -9475,7 +9475,7 @@
         <v>2</v>
       </c>
       <c r="C394">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -9486,7 +9486,7 @@
         <v>2</v>
       </c>
       <c r="C395">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -9497,7 +9497,7 @@
         <v>2</v>
       </c>
       <c r="C396">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -9508,7 +9508,7 @@
         <v>2</v>
       </c>
       <c r="C397">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -9519,7 +9519,7 @@
         <v>2</v>
       </c>
       <c r="C398">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -9530,7 +9530,7 @@
         <v>2</v>
       </c>
       <c r="C399">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -9541,7 +9541,7 @@
         <v>2</v>
       </c>
       <c r="C400">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
         <v>2</v>
       </c>
       <c r="C401">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -9563,7 +9563,7 @@
         <v>2</v>
       </c>
       <c r="C402">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -9574,7 +9574,7 @@
         <v>2</v>
       </c>
       <c r="C403">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -9585,7 +9585,7 @@
         <v>2</v>
       </c>
       <c r="C404">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -9596,7 +9596,7 @@
         <v>2</v>
       </c>
       <c r="C405">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -9607,7 +9607,7 @@
         <v>2</v>
       </c>
       <c r="C406">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -9618,7 +9618,7 @@
         <v>2</v>
       </c>
       <c r="C407">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="C408">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -9640,7 +9640,7 @@
         <v>2</v>
       </c>
       <c r="C409">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -9651,7 +9651,7 @@
         <v>2</v>
       </c>
       <c r="C410">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -9662,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="C411">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -9673,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="C412">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -9684,7 +9684,7 @@
         <v>2</v>
       </c>
       <c r="C413">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -9695,7 +9695,7 @@
         <v>2</v>
       </c>
       <c r="C414">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -9706,7 +9706,7 @@
         <v>2</v>
       </c>
       <c r="C415">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -9717,7 +9717,7 @@
         <v>2</v>
       </c>
       <c r="C416">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -9728,7 +9728,7 @@
         <v>2</v>
       </c>
       <c r="C417">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -9739,7 +9739,7 @@
         <v>2</v>
       </c>
       <c r="C418">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -9750,7 +9750,7 @@
         <v>2</v>
       </c>
       <c r="C419">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -9761,7 +9761,7 @@
         <v>2</v>
       </c>
       <c r="C420">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -9772,7 +9772,7 @@
         <v>2</v>
       </c>
       <c r="C421">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -9783,7 +9783,7 @@
         <v>2</v>
       </c>
       <c r="C422">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -9794,7 +9794,7 @@
         <v>2</v>
       </c>
       <c r="C423">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -9805,7 +9805,7 @@
         <v>2</v>
       </c>
       <c r="C424">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -9816,7 +9816,7 @@
         <v>2</v>
       </c>
       <c r="C425">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -9827,7 +9827,7 @@
         <v>2</v>
       </c>
       <c r="C426">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -9838,7 +9838,7 @@
         <v>2</v>
       </c>
       <c r="C427">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -9849,7 +9849,7 @@
         <v>2</v>
       </c>
       <c r="C428">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -9860,7 +9860,7 @@
         <v>2</v>
       </c>
       <c r="C429">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -9871,7 +9871,7 @@
         <v>2</v>
       </c>
       <c r="C430">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -9882,7 +9882,7 @@
         <v>2</v>
       </c>
       <c r="C431">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -9893,7 +9893,7 @@
         <v>2</v>
       </c>
       <c r="C432">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -9904,7 +9904,7 @@
         <v>2</v>
       </c>
       <c r="C433">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -9915,7 +9915,7 @@
         <v>2</v>
       </c>
       <c r="C434">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -9926,7 +9926,7 @@
         <v>2</v>
       </c>
       <c r="C435">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -9937,7 +9937,7 @@
         <v>2</v>
       </c>
       <c r="C436">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -9948,7 +9948,7 @@
         <v>2</v>
       </c>
       <c r="C437">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -9959,7 +9959,7 @@
         <v>2</v>
       </c>
       <c r="C438">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -9970,7 +9970,7 @@
         <v>2</v>
       </c>
       <c r="C439">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -9981,7 +9981,7 @@
         <v>2</v>
       </c>
       <c r="C440">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
         <v>2</v>
       </c>
       <c r="C441">
-        <v>5.3821313240043002E-2</v>
+        <v>5.3835800807536999E-2</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -10003,7 +10003,7 @@
         <v>1</v>
       </c>
       <c r="C442">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -10014,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="C443">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -10025,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="C444">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -10036,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="C445">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -10047,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="C446">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -10058,7 +10058,7 @@
         <v>1</v>
       </c>
       <c r="C447">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -10069,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="C448">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -10080,7 +10080,7 @@
         <v>1</v>
       </c>
       <c r="C449">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -10091,7 +10091,7 @@
         <v>1</v>
       </c>
       <c r="C450">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -10102,7 +10102,7 @@
         <v>1</v>
       </c>
       <c r="C451">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="C452">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -10124,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="C453">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -10135,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="C454">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -10146,7 +10146,7 @@
         <v>1</v>
       </c>
       <c r="C455">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="C456">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -10168,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="C457">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -10179,7 +10179,7 @@
         <v>1</v>
       </c>
       <c r="C458">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -10190,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="C459">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -10201,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="C460">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -10212,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="C461">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -10223,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="C462">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -10234,7 +10234,7 @@
         <v>1</v>
       </c>
       <c r="C463">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -10245,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="C464">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
       <c r="C465">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="C466">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -10278,7 +10278,7 @@
         <v>1</v>
       </c>
       <c r="C467">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -10289,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="C468">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -10300,7 +10300,7 @@
         <v>1</v>
       </c>
       <c r="C469">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="C470">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -10322,7 +10322,7 @@
         <v>1</v>
       </c>
       <c r="C471">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="C472">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -10344,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="C473">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="C474">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -10366,7 +10366,7 @@
         <v>1</v>
       </c>
       <c r="C475">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="C476">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="C477">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
         <v>1</v>
       </c>
       <c r="C478">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -10410,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="C479">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -10421,7 +10421,7 @@
         <v>1</v>
       </c>
       <c r="C480">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -10432,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="C481">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="C482">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -10454,7 +10454,7 @@
         <v>1</v>
       </c>
       <c r="C483">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -10465,7 +10465,7 @@
         <v>1</v>
       </c>
       <c r="C484">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -10476,7 +10476,7 @@
         <v>1</v>
       </c>
       <c r="C485">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="C486">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -10498,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="C487">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -10509,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="C488">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -10520,7 +10520,7 @@
         <v>1</v>
       </c>
       <c r="C489">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -10531,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="C490">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -10542,7 +10542,7 @@
         <v>1</v>
       </c>
       <c r="C491">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>1</v>
       </c>
       <c r="C492">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -10564,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="C493">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -10575,7 +10575,7 @@
         <v>1</v>
       </c>
       <c r="C494">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -10586,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="C495">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -10597,7 +10597,7 @@
         <v>1</v>
       </c>
       <c r="C496">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -10608,7 +10608,7 @@
         <v>1</v>
       </c>
       <c r="C497">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="C498">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -10630,7 +10630,7 @@
         <v>1</v>
       </c>
       <c r="C499">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -10641,7 +10641,7 @@
         <v>1</v>
       </c>
       <c r="C500">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -10652,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="C501">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -10663,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="C502">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -10674,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="C503">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -10685,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="C504">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -10696,7 +10696,7 @@
         <v>1</v>
       </c>
       <c r="C505">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -10707,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="C506">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -10718,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="C507">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="C508">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -10740,7 +10740,7 @@
         <v>1</v>
       </c>
       <c r="C509">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -10751,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="C510">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -10762,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="C511">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
       <c r="C512">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -10784,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="C513">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="C514">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -10806,7 +10806,7 @@
         <v>1</v>
       </c>
       <c r="C515">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -10817,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="C516">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -10828,7 +10828,7 @@
         <v>1</v>
       </c>
       <c r="C517">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -10839,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="C518">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="C519">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="C520">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -10872,7 +10872,7 @@
         <v>1</v>
       </c>
       <c r="C521">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -10883,7 +10883,7 @@
         <v>1</v>
       </c>
       <c r="C522">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="C523">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -10905,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="C524">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -10916,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="C525">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -10927,7 +10927,7 @@
         <v>1</v>
       </c>
       <c r="C526">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -10938,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="C527">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -10949,7 +10949,7 @@
         <v>1</v>
       </c>
       <c r="C528">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -10960,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="C529">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -10971,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="C530">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -10982,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="C531">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -10993,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="C532">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -11004,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="C533">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -11015,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="C534">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -11026,7 +11026,7 @@
         <v>1</v>
       </c>
       <c r="C535">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -11037,7 +11037,7 @@
         <v>1</v>
       </c>
       <c r="C536">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -11048,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="C537">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -11059,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="C538">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -11070,7 +11070,7 @@
         <v>1</v>
       </c>
       <c r="C539">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -11081,7 +11081,7 @@
         <v>1</v>
       </c>
       <c r="C540">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="C541">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -11103,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="C542">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -11114,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="C543">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -11125,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="C544">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="C545">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -11147,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="C546">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -11158,7 +11158,7 @@
         <v>1</v>
       </c>
       <c r="C547">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -11169,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="C548">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -11180,7 +11180,7 @@
         <v>1</v>
       </c>
       <c r="C549">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -11191,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="C550">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -11202,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="C551">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -11213,7 +11213,7 @@
         <v>1</v>
       </c>
       <c r="C552">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -11224,7 +11224,7 @@
         <v>1</v>
       </c>
       <c r="C553">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -11235,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="C554">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -11246,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="C555">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -11257,7 +11257,7 @@
         <v>1</v>
       </c>
       <c r="C556">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -11268,7 +11268,7 @@
         <v>1</v>
       </c>
       <c r="C557">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -11279,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="C558">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -11290,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="C559">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -11301,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="C560">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -11312,7 +11312,7 @@
         <v>1</v>
       </c>
       <c r="C561">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -11323,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="C562">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -11334,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="C563">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
       <c r="C564">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -11356,7 +11356,7 @@
         <v>1</v>
       </c>
       <c r="C565">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -11367,7 +11367,7 @@
         <v>1</v>
       </c>
       <c r="C566">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -11378,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="C567">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="C568">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -11400,7 +11400,7 @@
         <v>1</v>
       </c>
       <c r="C569">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="C570">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -11422,7 +11422,7 @@
         <v>1</v>
       </c>
       <c r="C571">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="C572">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -11444,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="C573">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -11455,7 +11455,7 @@
         <v>1</v>
       </c>
       <c r="C574">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -11466,7 +11466,7 @@
         <v>1</v>
       </c>
       <c r="C575">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -11477,7 +11477,7 @@
         <v>1</v>
       </c>
       <c r="C576">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -11488,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="C577">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -11499,7 +11499,7 @@
         <v>1</v>
       </c>
       <c r="C578">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -11510,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="C579">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -11521,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="C580">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -11532,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="C581">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -11543,7 +11543,7 @@
         <v>1</v>
       </c>
       <c r="C582">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -11554,7 +11554,7 @@
         <v>1</v>
       </c>
       <c r="C583">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -11565,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="C584">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="C585">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -11587,7 +11587,7 @@
         <v>1</v>
       </c>
       <c r="C586">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="C587">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -11609,7 +11609,7 @@
         <v>1</v>
       </c>
       <c r="C588">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
       <c r="C589">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -11631,7 +11631,7 @@
         <v>1</v>
       </c>
       <c r="C590">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -11642,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="C591">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -11653,7 +11653,7 @@
         <v>1</v>
       </c>
       <c r="C592">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="C593">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="C594">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="C595">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -11697,7 +11697,7 @@
         <v>1</v>
       </c>
       <c r="C596">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -11708,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="C597">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -11719,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="C598">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -11730,7 +11730,7 @@
         <v>1</v>
       </c>
       <c r="C599">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -11741,7 +11741,7 @@
         <v>1</v>
       </c>
       <c r="C600">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="C601">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -11763,7 +11763,7 @@
         <v>1</v>
       </c>
       <c r="C602">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -11774,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="C603">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -11785,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="C604">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -11796,7 +11796,7 @@
         <v>1</v>
       </c>
       <c r="C605">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -11807,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="C606">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -11818,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="C607">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -11829,7 +11829,7 @@
         <v>1</v>
       </c>
       <c r="C608">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -11840,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="C609">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -11851,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="C610">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="C611">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -11873,7 +11873,7 @@
         <v>1</v>
       </c>
       <c r="C612">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -11884,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="C613">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -11895,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="C614">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -11906,7 +11906,7 @@
         <v>1</v>
       </c>
       <c r="C615">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -11917,7 +11917,7 @@
         <v>1</v>
       </c>
       <c r="C616">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -11928,7 +11928,7 @@
         <v>1</v>
       </c>
       <c r="C617">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -11939,7 +11939,7 @@
         <v>1</v>
       </c>
       <c r="C618">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -11950,7 +11950,7 @@
         <v>1</v>
       </c>
       <c r="C619">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -11961,7 +11961,7 @@
         <v>1</v>
       </c>
       <c r="C620">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -11972,7 +11972,7 @@
         <v>1</v>
       </c>
       <c r="C621">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="C622">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -11994,7 +11994,7 @@
         <v>1</v>
       </c>
       <c r="C623">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -12005,7 +12005,7 @@
         <v>1</v>
       </c>
       <c r="C624">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -12016,7 +12016,7 @@
         <v>1</v>
       </c>
       <c r="C625">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -12027,7 +12027,7 @@
         <v>1</v>
       </c>
       <c r="C626">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="C627">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -12049,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="C628">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -12060,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="C629">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -12071,7 +12071,7 @@
         <v>1</v>
       </c>
       <c r="C630">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -12082,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="C631">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -12093,7 +12093,7 @@
         <v>1</v>
       </c>
       <c r="C632">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -12104,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="C633">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="C634">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -12126,7 +12126,7 @@
         <v>1</v>
       </c>
       <c r="C635">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="C636">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -12148,7 +12148,7 @@
         <v>1</v>
       </c>
       <c r="C637">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -12159,7 +12159,7 @@
         <v>1</v>
       </c>
       <c r="C638">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -12170,7 +12170,7 @@
         <v>1</v>
       </c>
       <c r="C639">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -12181,7 +12181,7 @@
         <v>1</v>
       </c>
       <c r="C640">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -12192,7 +12192,7 @@
         <v>1</v>
       </c>
       <c r="C641">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -12203,7 +12203,7 @@
         <v>1</v>
       </c>
       <c r="C642">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -12214,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="C643">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -12225,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="C644">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -12236,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="C645">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -12247,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="C646">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -12258,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="C647">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="C648">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -12280,7 +12280,7 @@
         <v>1</v>
       </c>
       <c r="C649">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -12291,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="C650">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="C651">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -12313,7 +12313,7 @@
         <v>1</v>
       </c>
       <c r="C652">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -12324,7 +12324,7 @@
         <v>1</v>
       </c>
       <c r="C653">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -12335,7 +12335,7 @@
         <v>1</v>
       </c>
       <c r="C654">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="C655">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -12357,7 +12357,7 @@
         <v>1</v>
       </c>
       <c r="C656">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -12368,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="C657">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="C658">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -12390,7 +12390,7 @@
         <v>1</v>
       </c>
       <c r="C659">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -12401,7 +12401,7 @@
         <v>1</v>
       </c>
       <c r="C660">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
@@ -12412,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="C661">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="C662">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
       <c r="C663">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -12445,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="C664">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -12456,7 +12456,7 @@
         <v>1</v>
       </c>
       <c r="C665">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -12467,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="C666">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
@@ -12478,7 +12478,7 @@
         <v>1</v>
       </c>
       <c r="C667">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
@@ -12489,7 +12489,7 @@
         <v>1</v>
       </c>
       <c r="C668">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -12500,7 +12500,7 @@
         <v>1</v>
       </c>
       <c r="C669">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -12511,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="C670">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
@@ -12522,7 +12522,7 @@
         <v>1</v>
       </c>
       <c r="C671">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="C672">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -12544,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="C673">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="C674">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -12566,7 +12566,7 @@
         <v>1</v>
       </c>
       <c r="C675">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.25">
@@ -12577,7 +12577,7 @@
         <v>1</v>
       </c>
       <c r="C676">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.25">
@@ -12588,7 +12588,7 @@
         <v>1</v>
       </c>
       <c r="C677">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.25">
@@ -12599,7 +12599,7 @@
         <v>1</v>
       </c>
       <c r="C678">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.25">
@@ -12610,7 +12610,7 @@
         <v>1</v>
       </c>
       <c r="C679">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.25">
@@ -12621,7 +12621,7 @@
         <v>1</v>
       </c>
       <c r="C680">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.25">
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="C681">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.25">
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="C682">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.25">
@@ -12654,7 +12654,7 @@
         <v>1</v>
       </c>
       <c r="C683">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="C684">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.25">
@@ -12676,7 +12676,7 @@
         <v>1</v>
       </c>
       <c r="C685">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="C686">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
@@ -12698,7 +12698,7 @@
         <v>1</v>
       </c>
       <c r="C687">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
@@ -12709,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="C688">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
@@ -12720,7 +12720,7 @@
         <v>1</v>
       </c>
       <c r="C689">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
@@ -12731,7 +12731,7 @@
         <v>1</v>
       </c>
       <c r="C690">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
@@ -12742,7 +12742,7 @@
         <v>1</v>
       </c>
       <c r="C691">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="C692">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
@@ -12764,7 +12764,7 @@
         <v>1</v>
       </c>
       <c r="C693">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
@@ -12775,7 +12775,7 @@
         <v>1</v>
       </c>
       <c r="C694">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
@@ -12786,7 +12786,7 @@
         <v>1</v>
       </c>
       <c r="C695">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="C696">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.25">
@@ -12808,7 +12808,7 @@
         <v>1</v>
       </c>
       <c r="C697">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.25">
@@ -12819,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="C698">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.25">
@@ -12830,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="C699">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
@@ -12841,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="C700">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
@@ -12852,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="C701">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
@@ -12863,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="C702">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
@@ -12874,7 +12874,7 @@
         <v>1</v>
       </c>
       <c r="C703">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
@@ -12885,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="C704">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
@@ -12896,7 +12896,7 @@
         <v>1</v>
       </c>
       <c r="C705">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
@@ -12907,7 +12907,7 @@
         <v>1</v>
       </c>
       <c r="C706">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
@@ -12918,7 +12918,7 @@
         <v>1</v>
       </c>
       <c r="C707">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
@@ -12929,7 +12929,7 @@
         <v>1</v>
       </c>
       <c r="C708">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
@@ -12940,7 +12940,7 @@
         <v>1</v>
       </c>
       <c r="C709">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
@@ -12951,7 +12951,7 @@
         <v>1</v>
       </c>
       <c r="C710">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
@@ -12962,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="C711">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="C712">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.25">
@@ -12984,7 +12984,7 @@
         <v>1</v>
       </c>
       <c r="C713">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.25">
@@ -12995,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="C714">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.25">
@@ -13006,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="C715">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
@@ -13017,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="C716">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
@@ -13028,7 +13028,7 @@
         <v>1</v>
       </c>
       <c r="C717">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
@@ -13039,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="C718">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
@@ -13050,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="C719">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="C720">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
@@ -13072,7 +13072,7 @@
         <v>1</v>
       </c>
       <c r="C721">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="C722">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
@@ -13094,7 +13094,7 @@
         <v>1</v>
       </c>
       <c r="C723">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
@@ -13105,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="C724">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
@@ -13116,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="C725">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.25">
@@ -13127,7 +13127,7 @@
         <v>1</v>
       </c>
       <c r="C726">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.25">
@@ -13138,7 +13138,7 @@
         <v>1</v>
       </c>
       <c r="C727">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.25">
@@ -13149,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="C728">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.25">
@@ -13160,7 +13160,7 @@
         <v>1</v>
       </c>
       <c r="C729">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.25">
@@ -13171,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="C730">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
@@ -13182,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="C731">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
@@ -13193,7 +13193,7 @@
         <v>1</v>
       </c>
       <c r="C732">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
@@ -13204,7 +13204,7 @@
         <v>1</v>
       </c>
       <c r="C733">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="C734">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="C735">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
@@ -13237,7 +13237,7 @@
         <v>1</v>
       </c>
       <c r="C736">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
@@ -13248,7 +13248,7 @@
         <v>1</v>
       </c>
       <c r="C737">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.25">
@@ -13259,7 +13259,7 @@
         <v>1</v>
       </c>
       <c r="C738">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.25">
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="C739">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.25">
@@ -13281,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="C740">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.25">
@@ -13292,7 +13292,7 @@
         <v>1</v>
       </c>
       <c r="C741">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.25">
@@ -13303,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="C742">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
@@ -13314,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="C743">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="C744">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
@@ -13336,7 +13336,7 @@
         <v>1</v>
       </c>
       <c r="C745">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="C746">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
@@ -13358,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="C747">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
@@ -13369,7 +13369,7 @@
         <v>1</v>
       </c>
       <c r="C748">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.25">
@@ -13380,7 +13380,7 @@
         <v>1</v>
       </c>
       <c r="C749">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.25">
@@ -13391,7 +13391,7 @@
         <v>1</v>
       </c>
       <c r="C750">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.25">
@@ -13402,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="C751">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.25">
@@ -13413,7 +13413,7 @@
         <v>1</v>
       </c>
       <c r="C752">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="C753">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
@@ -13435,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="C754">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
@@ -13446,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="C755">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="C756">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
@@ -13468,7 +13468,7 @@
         <v>1</v>
       </c>
       <c r="C757">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
@@ -13479,7 +13479,7 @@
         <v>1</v>
       </c>
       <c r="C758">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
@@ -13490,7 +13490,7 @@
         <v>1</v>
       </c>
       <c r="C759">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
@@ -13501,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="C760">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
@@ -13512,7 +13512,7 @@
         <v>1</v>
       </c>
       <c r="C761">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
@@ -13523,7 +13523,7 @@
         <v>1</v>
       </c>
       <c r="C762">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
@@ -13534,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="C763">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.25">
@@ -13545,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="C764">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.25">
@@ -13556,7 +13556,7 @@
         <v>1</v>
       </c>
       <c r="C765">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
@@ -13567,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="C766">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
@@ -13578,7 +13578,7 @@
         <v>1</v>
       </c>
       <c r="C767">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
@@ -13589,7 +13589,7 @@
         <v>1</v>
       </c>
       <c r="C768">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.25">
@@ -13600,7 +13600,7 @@
         <v>1</v>
       </c>
       <c r="C769">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.25">
@@ -13611,7 +13611,7 @@
         <v>1</v>
       </c>
       <c r="C770">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.25">
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="C771">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.25">
@@ -13633,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="C772">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.25">
@@ -13644,7 +13644,7 @@
         <v>1</v>
       </c>
       <c r="C773">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.25">
@@ -13655,7 +13655,7 @@
         <v>1</v>
       </c>
       <c r="C774">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.25">
@@ -13666,7 +13666,7 @@
         <v>1</v>
       </c>
       <c r="C775">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.25">
@@ -13677,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="C776">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.25">
@@ -13688,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="C777">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.25">
@@ -13699,7 +13699,7 @@
         <v>1</v>
       </c>
       <c r="C778">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.25">
@@ -13710,7 +13710,7 @@
         <v>1</v>
       </c>
       <c r="C779">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.25">
@@ -13721,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="C780">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.25">
@@ -13732,7 +13732,7 @@
         <v>1</v>
       </c>
       <c r="C781">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.25">
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="C782">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.25">
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="C783">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.25">
@@ -13765,7 +13765,7 @@
         <v>1</v>
       </c>
       <c r="C784">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.25">
@@ -13776,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="C785">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.25">
@@ -13787,7 +13787,7 @@
         <v>1</v>
       </c>
       <c r="C786">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.25">
@@ -13798,7 +13798,7 @@
         <v>1</v>
       </c>
       <c r="C787">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.25">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="C788">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.25">
@@ -13820,7 +13820,7 @@
         <v>1</v>
       </c>
       <c r="C789">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.25">
@@ -13831,7 +13831,7 @@
         <v>1</v>
       </c>
       <c r="C790">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.25">
@@ -13842,7 +13842,7 @@
         <v>1</v>
       </c>
       <c r="C791">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.25">
@@ -13853,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="C792">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.25">
@@ -13864,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="C793">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -13875,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="C794">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
@@ -13886,7 +13886,7 @@
         <v>1</v>
       </c>
       <c r="C795">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
@@ -13897,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="C796">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="C797">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
@@ -13919,7 +13919,7 @@
         <v>1</v>
       </c>
       <c r="C798">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
@@ -13930,7 +13930,7 @@
         <v>1</v>
       </c>
       <c r="C799">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.25">
@@ -13941,7 +13941,7 @@
         <v>1</v>
       </c>
       <c r="C800">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.25">
@@ -13952,7 +13952,7 @@
         <v>1</v>
       </c>
       <c r="C801">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.25">
@@ -13963,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="C802">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.25">
@@ -13974,7 +13974,7 @@
         <v>1</v>
       </c>
       <c r="C803">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.25">
@@ -13985,7 +13985,7 @@
         <v>1</v>
       </c>
       <c r="C804">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.25">
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="C805">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.25">
@@ -14007,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="C806">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.25">
@@ -14018,7 +14018,7 @@
         <v>1</v>
       </c>
       <c r="C807">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.25">
@@ -14029,7 +14029,7 @@
         <v>1</v>
       </c>
       <c r="C808">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.25">
@@ -14040,7 +14040,7 @@
         <v>1</v>
       </c>
       <c r="C809">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.25">
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="C810">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.25">
@@ -14062,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="C811">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.25">
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="C812">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.25">
@@ -14084,7 +14084,7 @@
         <v>1</v>
       </c>
       <c r="C813">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="C814">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.25">
@@ -14106,7 +14106,7 @@
         <v>1</v>
       </c>
       <c r="C815">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.25">
@@ -14117,7 +14117,7 @@
         <v>1</v>
       </c>
       <c r="C816">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.25">
@@ -14128,7 +14128,7 @@
         <v>1</v>
       </c>
       <c r="C817">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.25">
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="C818">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.25">
@@ -14150,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="C819">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.25">
@@ -14161,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="C820">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.25">
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="C821">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.25">
@@ -14183,7 +14183,7 @@
         <v>1</v>
       </c>
       <c r="C822">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.25">
@@ -14194,7 +14194,7 @@
         <v>1</v>
       </c>
       <c r="C823">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.25">
@@ -14205,7 +14205,7 @@
         <v>1</v>
       </c>
       <c r="C824">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.25">
@@ -14216,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="C825">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.25">
@@ -14227,7 +14227,7 @@
         <v>1</v>
       </c>
       <c r="C826">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.25">
@@ -14238,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="C827">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.25">
@@ -14249,7 +14249,7 @@
         <v>1</v>
       </c>
       <c r="C828">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.25">
@@ -14260,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="C829">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.25">
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="C830">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.25">
@@ -14282,7 +14282,7 @@
         <v>1</v>
       </c>
       <c r="C831">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.25">
@@ -14293,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="C832">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.25">
@@ -14304,7 +14304,7 @@
         <v>1</v>
       </c>
       <c r="C833">
-        <v>2.6910656620021501E-2</v>
+        <v>2.6917900403768499E-2</v>
       </c>
     </row>
   </sheetData>
